--- a/step_5/Manifest_Table_Validation_Final.xlsx
+++ b/step_5/Manifest_Table_Validation_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gachanja\Documents\Cloud\AI Engineer Projects\Project_I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gachanja\Documents\Cloud\AI Engineer Projects\Project_I\Azure_AI\step_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21133F8D-CB4A-40CC-BFF8-DC330B93279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1FC30-C333-47C8-8481-5DAA59188307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="1560" windowWidth="19644" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="696" windowWidth="19644" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_manifest_final" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>

--- a/step_5/Manifest_Table_Validation_Final.xlsx
+++ b/step_5/Manifest_Table_Validation_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gachanja\Documents\Cloud\AI Engineer Projects\Project_I\Azure_AI\step_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1FC30-C333-47C8-8481-5DAA59188307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5A0D7-B0A6-44A7-BFC2-251B77627530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2028" yWindow="696" windowWidth="19644" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>

--- a/step_5/Manifest_Table_Validation_Final.xlsx
+++ b/step_5/Manifest_Table_Validation_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gachanja\Documents\Cloud\AI Engineer Projects\Project_I\Azure_AI\step_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5A0D7-B0A6-44A7-BFC2-251B77627530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3F3327-AD54-49ED-8786-8828692CB0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2028" yWindow="696" windowWidth="19644" windowHeight="9252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
